--- a/jinding_config_build/tmp_V05/relation.xlsx
+++ b/jinding_config_build/tmp_V05/relation.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="场景内可选功能" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="功能关系表" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="scene" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="strong" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="dependence" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="independence" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="reset" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="chief" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="dep_conf" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="dependence" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="independence" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="reset" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1652,32 +1653,8 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Noto Sans CJK SC Regular"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">老版本中是互斥</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="57">
   <si>
     <t xml:space="preserve">可选功能</t>
   </si>
@@ -2207,11 +2184,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="71.7441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="12.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="73.8372093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="13.046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2325,7 +2302,7 @@
   </sheetPr>
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
@@ -2335,10 +2312,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="25" min="3" style="1" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="25" min="3" style="1" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4182,7 +4159,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,8 +4889,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,13 +5016,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.306976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,13 +5164,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,14 +5190,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -5230,11 +5207,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -5306,11 +5283,140 @@
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.8139534883721"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5323,8 +5429,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="20" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="20" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5366,7 +5472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5379,7 +5485,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/jinding_config_build/tmp_V05/relation.xlsx
+++ b/jinding_config_build/tmp_V05/relation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="场景内可选功能" sheetId="1" state="visible" r:id="rId2"/>
@@ -2184,11 +2184,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="73.8372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="1" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="78.2697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="13.5348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2312,10 +2312,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="25" min="3" style="1" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="25" min="3" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4159,7 +4159,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,14 +4883,14 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.4279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4939,7 +4939,7 @@
         <v>48</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>46</v>
@@ -5021,8 +5021,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,8 +5169,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.4279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,14 +5293,14 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.4279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,8 +5429,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="20" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="20" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,7 +5485,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.1813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
